--- a/字段表演示.xlsx
+++ b/字段表演示.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\咸鱼项目\8-8咸鱼unet项目\测试\testAccess\newTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7098F302-0C51-4183-AD43-F3AF042F8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4421CE4-A18B-4191-AF77-0B7D88E8F5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XH_LINE" sheetId="1" r:id="rId1"/>
-    <sheet name="XH_POINT" sheetId="2" r:id="rId2"/>
+    <sheet name="GD_LINE" sheetId="6" r:id="rId2"/>
+    <sheet name="DX_LINE" sheetId="7" r:id="rId3"/>
+    <sheet name="XH_POINT" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>起点点号</t>
   </si>
@@ -224,6 +226,10 @@
   </si>
   <si>
     <t>物探点号%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管线段号*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +265,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,9 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,12 +583,12 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -674,14 +689,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9B8972-E930-461B-AA58-A530266EF819}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E49C7-F561-4AF3-9185-26401D7263D3}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7954BF53-3636-490C-9673-436170426184}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/字段表演示.xlsx
+++ b/字段表演示.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\咸鱼项目\8-8咸鱼unet项目\测试\testAccess\newTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4421CE4-A18B-4191-AF77-0B7D88E8F5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF36FB82-809D-47EA-B55F-933FB27B5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XH_LINE" sheetId="1" r:id="rId1"/>
-    <sheet name="GD_LINE" sheetId="6" r:id="rId2"/>
-    <sheet name="DX_LINE" sheetId="7" r:id="rId3"/>
-    <sheet name="XH_POINT" sheetId="2" r:id="rId4"/>
+    <sheet name="测试" sheetId="8" r:id="rId2"/>
+    <sheet name="GD_LINE" sheetId="6" r:id="rId3"/>
+    <sheet name="DX_LINE" sheetId="7" r:id="rId4"/>
+    <sheet name="XH_POINT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -583,7 +584,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,10 +686,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D253C7-BD79-41F5-8462-866B7AACB482}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9B8972-E930-461B-AA58-A530266EF819}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -798,11 +813,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004E49C7-F561-4AF3-9185-26401D7263D3}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7954BF53-3636-490C-9673-436170426184}">
   <dimension ref="A1:R2"/>
   <sheetViews>
